--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
     <t>Itga8</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H2">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N2">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O2">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P2">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q2">
-        <v>1.21048905728</v>
+        <v>4.906471953145778</v>
       </c>
       <c r="R2">
-        <v>10.89440151552</v>
+        <v>44.15824757831201</v>
       </c>
       <c r="S2">
-        <v>0.004406996739477864</v>
+        <v>0.03512547258625517</v>
       </c>
       <c r="T2">
-        <v>0.004406996739477863</v>
+        <v>0.03512547258625517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H3">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.348442</v>
       </c>
       <c r="O3">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P3">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q3">
-        <v>1.77507556438</v>
+        <v>4.081707564467555</v>
       </c>
       <c r="R3">
-        <v>15.97568007942</v>
+        <v>36.735368080208</v>
       </c>
       <c r="S3">
-        <v>0.006462472483747531</v>
+        <v>0.02922097762505149</v>
       </c>
       <c r="T3">
-        <v>0.00646247248374753</v>
+        <v>0.02922097762505149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H4">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N4">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O4">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P4">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q4">
-        <v>1.93101775656</v>
+        <v>12.56990256018933</v>
       </c>
       <c r="R4">
-        <v>17.37915980904</v>
+        <v>113.129123041704</v>
       </c>
       <c r="S4">
-        <v>0.007030207258672742</v>
+        <v>0.0899880345808859</v>
       </c>
       <c r="T4">
-        <v>0.007030207258672741</v>
+        <v>0.08998803458088592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H5">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I5">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J5">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N5">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O5">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P5">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q5">
-        <v>25.84624215937</v>
+        <v>10.594134911472</v>
       </c>
       <c r="R5">
-        <v>232.61617943433</v>
+        <v>95.34721420324801</v>
       </c>
       <c r="S5">
-        <v>0.09409775680256442</v>
+        <v>0.0758434979271433</v>
       </c>
       <c r="T5">
-        <v>0.09409775680256441</v>
+        <v>0.07584349792714332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H6">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I6">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J6">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N6">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O6">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P6">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q6">
-        <v>3.23621712517</v>
+        <v>11.56525683161956</v>
       </c>
       <c r="R6">
-        <v>29.12595412653</v>
+        <v>104.087311484576</v>
       </c>
       <c r="S6">
-        <v>0.01178201342101654</v>
+        <v>0.08279576764554741</v>
       </c>
       <c r="T6">
-        <v>0.01178201342101654</v>
+        <v>0.08279576764554741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H7">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I7">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J7">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N7">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O7">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P7">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q7">
-        <v>3.70800866839</v>
+        <v>7.235503354631999</v>
       </c>
       <c r="R7">
-        <v>33.37207801551</v>
+        <v>65.119530191688</v>
       </c>
       <c r="S7">
-        <v>0.0134996528991922</v>
+        <v>0.05179902731695743</v>
       </c>
       <c r="T7">
-        <v>0.0134996528991922</v>
+        <v>0.05179902731695742</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>8.875596</v>
       </c>
       <c r="I8">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J8">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N8">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O8">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P8">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q8">
-        <v>0.9068413392213333</v>
+        <v>1.598507659905333</v>
       </c>
       <c r="R8">
-        <v>8.161572052992</v>
+        <v>14.386568939148</v>
       </c>
       <c r="S8">
-        <v>0.003301514211249687</v>
+        <v>0.01144372932793884</v>
       </c>
       <c r="T8">
-        <v>0.003301514211249686</v>
+        <v>0.01144372932793884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>8.875596</v>
       </c>
       <c r="I9">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J9">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.348442</v>
       </c>
       <c r="O9">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P9">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q9">
         <v>1.329802935714667</v>
@@ -1013,10 +1013,10 @@
         <v>11.968226421432</v>
       </c>
       <c r="S9">
-        <v>0.004841379743664251</v>
+        <v>0.009520070023760992</v>
       </c>
       <c r="T9">
-        <v>0.004841379743664251</v>
+        <v>0.009520070023760992</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>8.875596</v>
       </c>
       <c r="I10">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J10">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N10">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O10">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P10">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q10">
-        <v>1.446627474976</v>
+        <v>4.095220704123999</v>
       </c>
       <c r="R10">
-        <v>13.019647274784</v>
+        <v>36.856986337116</v>
       </c>
       <c r="S10">
-        <v>0.005266699874002786</v>
+        <v>0.02931771830166992</v>
       </c>
       <c r="T10">
-        <v>0.005266699874002786</v>
+        <v>0.02931771830166993</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>8.875596</v>
       </c>
       <c r="I11">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J11">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N11">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O11">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P11">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q11">
-        <v>19.36278623311867</v>
+        <v>3.451524021288</v>
       </c>
       <c r="R11">
-        <v>174.265076098068</v>
+        <v>31.063716191592</v>
       </c>
       <c r="S11">
-        <v>0.07049360362521859</v>
+        <v>0.0247094885180832</v>
       </c>
       <c r="T11">
-        <v>0.07049360362521859</v>
+        <v>0.0247094885180832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>8.875596</v>
       </c>
       <c r="I12">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J12">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N12">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O12">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P12">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q12">
-        <v>2.424421314798667</v>
+        <v>3.767911405722667</v>
       </c>
       <c r="R12">
-        <v>21.819791833188</v>
+        <v>33.911202651504</v>
       </c>
       <c r="S12">
-        <v>0.008826529050536417</v>
+        <v>0.02697450837445303</v>
       </c>
       <c r="T12">
-        <v>0.008826529050536417</v>
+        <v>0.02697450837445303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>8.875596</v>
       </c>
       <c r="I13">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J13">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N13">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O13">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P13">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q13">
-        <v>2.777865298710667</v>
+        <v>2.357296168428</v>
       </c>
       <c r="R13">
-        <v>25.000787688396</v>
+        <v>21.215665515852</v>
       </c>
       <c r="S13">
-        <v>0.01011330357800573</v>
+        <v>0.01687590242693922</v>
       </c>
       <c r="T13">
-        <v>0.01011330357800573</v>
+        <v>0.01687590242693922</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H14">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I14">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J14">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N14">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O14">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P14">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q14">
-        <v>0.01868631836444444</v>
+        <v>0.05467519650444445</v>
       </c>
       <c r="R14">
-        <v>0.16817686528</v>
+        <v>0.49207676854</v>
       </c>
       <c r="S14">
-        <v>6.803080425195729E-05</v>
+        <v>0.0003914201761071226</v>
       </c>
       <c r="T14">
-        <v>6.803080425195728E-05</v>
+        <v>0.0003914201761071226</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H15">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I15">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J15">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.348442</v>
       </c>
       <c r="O15">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P15">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q15">
-        <v>0.02740183970888889</v>
+        <v>0.04548444692888889</v>
       </c>
       <c r="R15">
-        <v>0.24661655738</v>
+        <v>0.40936002236</v>
       </c>
       <c r="S15">
-        <v>9.976118125687051E-05</v>
+        <v>0.0003256235252047707</v>
       </c>
       <c r="T15">
-        <v>9.97611812568705E-05</v>
+        <v>0.0003256235252047707</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H16">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I16">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J16">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N16">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O16">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P16">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q16">
-        <v>0.02980911917333334</v>
+        <v>0.1400725203533333</v>
       </c>
       <c r="R16">
-        <v>0.26828207256</v>
+        <v>1.26065268318</v>
       </c>
       <c r="S16">
-        <v>0.0001085253024085785</v>
+        <v>0.001002780311544256</v>
       </c>
       <c r="T16">
-        <v>0.0001085253024085785</v>
+        <v>0.001002780311544257</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H17">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I17">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J17">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N17">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O17">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P17">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q17">
-        <v>0.3989884143188889</v>
+        <v>0.11805558324</v>
       </c>
       <c r="R17">
-        <v>3.59089572887</v>
+        <v>1.06250024916</v>
       </c>
       <c r="S17">
-        <v>0.001452586977484805</v>
+        <v>0.0008451608798236983</v>
       </c>
       <c r="T17">
-        <v>0.001452586977484805</v>
+        <v>0.0008451608798236985</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H18">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I18">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J18">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N18">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O18">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P18">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q18">
-        <v>0.0499574805188889</v>
+        <v>0.1288772657688889</v>
       </c>
       <c r="R18">
-        <v>0.44961732467</v>
+        <v>1.15989539192</v>
       </c>
       <c r="S18">
-        <v>0.0001818789293758532</v>
+        <v>0.0009226333929931524</v>
       </c>
       <c r="T18">
-        <v>0.0001818789293758532</v>
+        <v>0.0009226333929931525</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H19">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I19">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J19">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N19">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O19">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P19">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q19">
-        <v>0.05724052609888889</v>
+        <v>0.08062872293999999</v>
       </c>
       <c r="R19">
-        <v>0.5151647348899999</v>
+        <v>0.72565850646</v>
       </c>
       <c r="S19">
-        <v>0.0002083941282795509</v>
+        <v>0.0005772216827771576</v>
       </c>
       <c r="T19">
-        <v>0.0002083941282795508</v>
+        <v>0.0005772216827771577</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H20">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I20">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J20">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N20">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O20">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P20">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q20">
-        <v>6.681706163313777</v>
+        <v>6.785702113593668</v>
       </c>
       <c r="R20">
-        <v>60.13535546982399</v>
+        <v>61.071319022343</v>
       </c>
       <c r="S20">
-        <v>0.02432591777577855</v>
+        <v>0.04857889657694053</v>
       </c>
       <c r="T20">
-        <v>0.02432591777577854</v>
+        <v>0.04857889657694053</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H21">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I21">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J21">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.348442</v>
       </c>
       <c r="O21">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P21">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q21">
-        <v>9.798133463111554</v>
+        <v>5.645044323451334</v>
       </c>
       <c r="R21">
-        <v>88.18320116800399</v>
+        <v>50.805398911062</v>
       </c>
       <c r="S21">
-        <v>0.03567181542469199</v>
+        <v>0.0404129181874677</v>
       </c>
       <c r="T21">
-        <v>0.03567181542469199</v>
+        <v>0.04041291818746769</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H22">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I22">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J22">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N22">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O22">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P22">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q22">
-        <v>10.65890944480533</v>
+        <v>17.384306928659</v>
       </c>
       <c r="R22">
-        <v>95.930185003248</v>
+        <v>156.458762357931</v>
       </c>
       <c r="S22">
-        <v>0.03880562065980026</v>
+        <v>0.1244543945802343</v>
       </c>
       <c r="T22">
-        <v>0.03880562065980026</v>
+        <v>0.1244543945802343</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H23">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I23">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J23">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N23">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O23">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P23">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q23">
-        <v>142.6671265602496</v>
+        <v>14.651799571458</v>
       </c>
       <c r="R23">
-        <v>1284.004139042246</v>
+        <v>131.866196143122</v>
       </c>
       <c r="S23">
-        <v>0.5194045809835539</v>
+        <v>0.1048923522036206</v>
       </c>
       <c r="T23">
-        <v>0.5194045809835539</v>
+        <v>0.1048923522036206</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H24">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I24">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J24">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N24">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O24">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P24">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q24">
-        <v>17.86340139220956</v>
+        <v>15.99487136092934</v>
       </c>
       <c r="R24">
-        <v>160.770612529886</v>
+        <v>143.953842248364</v>
       </c>
       <c r="S24">
-        <v>0.06503483135018717</v>
+        <v>0.1145074140592583</v>
       </c>
       <c r="T24">
-        <v>0.06503483135018716</v>
+        <v>0.1145074140592583</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,10 +1954,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H25">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I25">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J25">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,400 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N25">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O25">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P25">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q25">
-        <v>20.46761531977355</v>
+        <v>10.006776941823</v>
       </c>
       <c r="R25">
-        <v>184.208537877962</v>
+        <v>90.06099247640699</v>
       </c>
       <c r="S25">
-        <v>0.07451592679558175</v>
+        <v>0.07163859744911312</v>
       </c>
       <c r="T25">
-        <v>0.07451592679558174</v>
+        <v>0.07163859744911311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.585256</v>
+      </c>
+      <c r="I26">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J26">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5403043333333334</v>
+      </c>
+      <c r="N26">
+        <v>1.620913</v>
+      </c>
+      <c r="O26">
+        <v>0.09629411714733833</v>
+      </c>
+      <c r="P26">
+        <v>0.09629411714733833</v>
+      </c>
+      <c r="Q26">
+        <v>0.1054054509697778</v>
+      </c>
+      <c r="R26">
+        <v>0.948649058728</v>
+      </c>
+      <c r="S26">
+        <v>0.00075459848009668</v>
+      </c>
+      <c r="T26">
+        <v>0.0007545984800966801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.585256</v>
+      </c>
+      <c r="I27">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J27">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.4494806666666666</v>
+      </c>
+      <c r="N27">
+        <v>1.348442</v>
+      </c>
+      <c r="O27">
+        <v>0.0801073419205048</v>
+      </c>
+      <c r="P27">
+        <v>0.08010734192050478</v>
+      </c>
+      <c r="Q27">
+        <v>0.08768708568355554</v>
+      </c>
+      <c r="R27">
+        <v>0.789183771152</v>
+      </c>
+      <c r="S27">
+        <v>0.0006277525590198408</v>
+      </c>
+      <c r="T27">
+        <v>0.0006277525590198408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.585256</v>
+      </c>
+      <c r="I28">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J28">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.384207</v>
+      </c>
+      <c r="N28">
+        <v>4.152621</v>
+      </c>
+      <c r="O28">
+        <v>0.2466961354758073</v>
+      </c>
+      <c r="P28">
+        <v>0.2466961354758073</v>
+      </c>
+      <c r="Q28">
+        <v>0.2700384839973333</v>
+      </c>
+      <c r="R28">
+        <v>2.430346355976</v>
+      </c>
+      <c r="S28">
+        <v>0.001933207701472907</v>
+      </c>
+      <c r="T28">
+        <v>0.001933207701472908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.585256</v>
+      </c>
+      <c r="I29">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J29">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.166634</v>
+      </c>
+      <c r="N29">
+        <v>3.499902</v>
+      </c>
+      <c r="O29">
+        <v>0.2079198409737004</v>
+      </c>
+      <c r="P29">
+        <v>0.2079198409737004</v>
+      </c>
+      <c r="Q29">
+        <v>0.227593182768</v>
+      </c>
+      <c r="R29">
+        <v>2.048338644912</v>
+      </c>
+      <c r="S29">
+        <v>0.001629341445029641</v>
+      </c>
+      <c r="T29">
+        <v>0.001629341445029641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.585256</v>
+      </c>
+      <c r="I30">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J30">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.273574666666667</v>
+      </c>
+      <c r="N30">
+        <v>3.820724</v>
+      </c>
+      <c r="O30">
+        <v>0.2269790201223922</v>
+      </c>
+      <c r="P30">
+        <v>0.2269790201223922</v>
+      </c>
+      <c r="Q30">
+        <v>0.2484557383715556</v>
+      </c>
+      <c r="R30">
+        <v>2.236101645344</v>
+      </c>
+      <c r="S30">
+        <v>0.001778696650140327</v>
+      </c>
+      <c r="T30">
+        <v>0.001778696650140327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.585256</v>
+      </c>
+      <c r="I31">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J31">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.7967789999999999</v>
+      </c>
+      <c r="N31">
+        <v>2.390337</v>
+      </c>
+      <c r="O31">
+        <v>0.142003544360257</v>
+      </c>
+      <c r="P31">
+        <v>0.142003544360257</v>
+      </c>
+      <c r="Q31">
+        <v>0.155439896808</v>
+      </c>
+      <c r="R31">
+        <v>1.398959071272</v>
+      </c>
+      <c r="S31">
+        <v>0.001112795484470084</v>
+      </c>
+      <c r="T31">
+        <v>0.001112795484470084</v>
       </c>
     </row>
   </sheetData>
